--- a/VA_DTX.xlsx
+++ b/VA_DTX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98B8EB1B-CAA9-4FD8-82AD-CFA18969337B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{515516C4-1651-4E09-A275-B4393A99210E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{EF96BC07-83CF-4C71-96CF-648968799654}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{085FDA9C-94F9-42A8-9CA9-2137B3441D84}"/>
   </bookViews>
   <sheets>
     <sheet name="pro" sheetId="1" r:id="rId1"/>
@@ -241,7 +241,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Milliers [0] 2 2 2" xfId="1" xr:uid="{EF494BE7-451B-40BB-AE9B-D2C548A5C9F5}"/>
+    <cellStyle name="Milliers [0] 2 2 2" xfId="1" xr:uid="{1DCC5760-5E15-418A-8008-00A587722644}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1722,14 +1722,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F93207-D0DE-4EB9-8943-863CC6A355BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71B30B4-1E14-4BB1-A6ED-EB39F63FE6B1}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1750,7 +1750,7 @@
         <v>1996</v>
       </c>
       <c r="B2" s="1">
-        <v>5757204.42518376</v>
+        <v>1071981.5531803041</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1758,7 +1758,7 @@
         <v>1997</v>
       </c>
       <c r="B3" s="1">
-        <v>5474195.5655402998</v>
+        <v>1086535.7039443441</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1766,7 +1766,7 @@
         <v>1998</v>
       </c>
       <c r="B4" s="1">
-        <v>5720925.0319296652</v>
+        <v>1104983.0594843852</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1774,7 +1774,7 @@
         <v>1999</v>
       </c>
       <c r="B5" s="1">
-        <v>6066031.4908388853</v>
+        <v>963704.78306671581</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1782,7 +1782,7 @@
         <v>2000</v>
       </c>
       <c r="B6" s="1">
-        <v>5549876.1278222902</v>
+        <v>945990.28082493623</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1790,7 +1790,7 @@
         <v>2001</v>
       </c>
       <c r="B7" s="1">
-        <v>5347076.173052053</v>
+        <v>930722.71517897362</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1798,7 +1798,7 @@
         <v>2002</v>
       </c>
       <c r="B8" s="1">
-        <v>5093605.7214157283</v>
+        <v>1057337.6441696975</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1806,7 +1806,7 @@
         <v>2003</v>
       </c>
       <c r="B9" s="1">
-        <v>4443302.1668255301</v>
+        <v>1117902.7684626032</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1814,7 +1814,7 @@
         <v>2004</v>
       </c>
       <c r="B10" s="1">
-        <v>4859429.6174317189</v>
+        <v>1256432.5639295208</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1822,7 +1822,7 @@
         <v>2005</v>
       </c>
       <c r="B11" s="1">
-        <v>4956218.0067407889</v>
+        <v>1189856.4708432767</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1830,7 +1830,7 @@
         <v>2006</v>
       </c>
       <c r="B12" s="1">
-        <v>4875524.6508705746</v>
+        <v>1236989.1662027198</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1838,7 +1838,7 @@
         <v>2007</v>
       </c>
       <c r="B13" s="1">
-        <v>4639010.5305075273</v>
+        <v>1302568.2104731307</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1846,7 +1846,7 @@
         <v>2008</v>
       </c>
       <c r="B14" s="1">
-        <v>4646467.1623421349</v>
+        <v>1237643.039560745</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1854,7 +1854,7 @@
         <v>2009</v>
       </c>
       <c r="B15" s="1">
-        <v>5128224.7418563347</v>
+        <v>1254727.2209089387</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1862,7 +1862,7 @@
         <v>2010</v>
       </c>
       <c r="B16" s="1">
-        <v>5436748.1691376297</v>
+        <v>1206495.8700359438</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1870,7 +1870,7 @@
         <v>2011</v>
       </c>
       <c r="B17" s="1">
-        <v>5171681.0467257984</v>
+        <v>1112020.8544587812</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1878,7 +1878,7 @@
         <v>2012</v>
       </c>
       <c r="B18" s="1">
-        <v>6140549.7870343346</v>
+        <v>1462620.5966589863</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1886,7 +1886,7 @@
         <v>2013</v>
       </c>
       <c r="B19" s="1">
-        <v>6612581.0952871703</v>
+        <v>1486238.4543876173</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1894,7 +1894,7 @@
         <v>2014</v>
       </c>
       <c r="B20" s="1">
-        <v>7344950.4804429114</v>
+        <v>1605684.7941305023</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1902,7 +1902,7 @@
         <v>2015</v>
       </c>
       <c r="B21" s="1">
-        <v>7477710</v>
+        <v>1999783</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1910,7 +1910,7 @@
         <v>2016</v>
       </c>
       <c r="B22" s="1">
-        <v>7946350</v>
+        <v>2038236</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1918,7 +1918,7 @@
         <v>2017</v>
       </c>
       <c r="B23" s="1">
-        <v>8698557.8561877236</v>
+        <v>2451701.3457828108</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1926,7 +1926,7 @@
         <v>2018</v>
       </c>
       <c r="B24" s="1">
-        <v>9868150.2345123347</v>
+        <v>2600850.2537295958</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1934,7 +1934,7 @@
         <v>2019</v>
       </c>
       <c r="B25" s="1">
-        <v>10349411.1654146</v>
+        <v>3002201.8139454219</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1942,7 +1942,7 @@
         <v>2020</v>
       </c>
       <c r="B26" s="1">
-        <v>10089763.786913153</v>
+        <v>3415686.0456909742</v>
       </c>
     </row>
   </sheetData>
@@ -1951,14 +1951,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E264818-B9B3-4E9A-8A08-0E1B869B5857}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5699D03E-C100-442A-BFD9-930E7FC30CA4}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1976,7 +1976,7 @@
         <v>35065</v>
       </c>
       <c r="B2">
-        <v>110.88270484554977</v>
+        <v>265.98449413800546</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1984,7 +1984,7 @@
         <v>35156</v>
       </c>
       <c r="B3">
-        <v>105.89059471901635</v>
+        <v>276.88071335653399</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1992,7 +1992,7 @@
         <v>35247</v>
       </c>
       <c r="B4">
-        <v>102.37862506126639</v>
+        <v>258.20148041048526</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2000,7 +2000,7 @@
         <v>35339</v>
       </c>
       <c r="B5">
-        <v>161.63470314676968</v>
+        <v>310.15309704168322</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2008,7 +2008,7 @@
         <v>35431</v>
       </c>
       <c r="B6">
-        <v>105.4320059411905</v>
+        <v>269.59573018688764</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2016,7 +2016,7 @@
         <v>35521</v>
       </c>
       <c r="B7">
-        <v>100.6852946731629</v>
+        <v>280.63988592241498</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2024,7 +2024,7 @@
         <v>35612</v>
       </c>
       <c r="B8">
-        <v>97.345964104550475</v>
+        <v>261.70704751865401</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2032,7 +2032,7 @@
         <v>35704</v>
       </c>
       <c r="B9">
-        <v>153.68917096863854</v>
+        <v>314.36400432911421</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2040,7 +2040,7 @@
         <v>35796</v>
       </c>
       <c r="B10">
-        <v>110.183970363138</v>
+        <v>274.17296429781499</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2048,7 +2048,7 @@
         <v>35886</v>
       </c>
       <c r="B11">
-        <v>105.22331833902248</v>
+        <v>285.40462925807674</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2056,7 +2056,7 @@
         <v>35977</v>
       </c>
       <c r="B12">
-        <v>101.73347958351262</v>
+        <v>266.15034646905679</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2064,7 +2064,7 @@
         <v>36069</v>
       </c>
       <c r="B13">
-        <v>160.61615168916993</v>
+        <v>319.70132047601857</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2072,7 +2072,7 @@
         <v>36161</v>
       </c>
       <c r="B14">
-        <v>106.9074948266841</v>
+        <v>291.75534650557063</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2080,7 +2080,7 @@
         <v>36251</v>
       </c>
       <c r="B15">
-        <v>111.26668320766107</v>
+        <v>301.43143953691617</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2088,7 +2088,7 @@
         <v>36342</v>
       </c>
       <c r="B16">
-        <v>104.25016470892207</v>
+        <v>246.09644318235729</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2096,7 +2096,7 @@
         <v>36434</v>
       </c>
       <c r="B17">
-        <v>114.95833468701943</v>
+        <v>308.47711733508066</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2104,7 +2104,7 @@
         <v>36526</v>
       </c>
       <c r="B18">
-        <v>105.30576676325209</v>
+        <v>285.65042593383009</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2112,7 +2112,7 @@
         <v>36617</v>
       </c>
       <c r="B19">
-        <v>100.7020231156873</v>
+        <v>275.24858969534341</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2120,7 +2120,7 @@
         <v>36708</v>
       </c>
       <c r="B20">
-        <v>95.316850663619519</v>
+        <v>243.34295738690787</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2128,7 +2128,7 @@
         <v>36800</v>
       </c>
       <c r="B21">
-        <v>101.22988836644618</v>
+        <v>273.44827188483606</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2136,7 +2136,7 @@
         <v>36892</v>
       </c>
       <c r="B22">
-        <v>106.94101798760872</v>
+        <v>284.49793268841631</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2144,7 +2144,7 @@
         <v>36982</v>
       </c>
       <c r="B23">
-        <v>113.82392962208158</v>
+        <v>282.2597364616152</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2152,7 +2152,7 @@
         <v>37073</v>
       </c>
       <c r="B24">
-        <v>115.52119164904492</v>
+        <v>255.71018935121799</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2160,7 +2160,7 @@
         <v>37165</v>
       </c>
       <c r="B25">
-        <v>123.3139505822282</v>
+        <v>345.25260858858434</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2168,7 +2168,7 @@
         <v>37257</v>
       </c>
       <c r="B26">
-        <v>110.59933179186326</v>
+        <v>316.40017755601588</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2176,7 +2176,7 @@
         <v>37347</v>
       </c>
       <c r="B27">
-        <v>105.93326024399906</v>
+        <v>303.72887909618174</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2184,7 +2184,7 @@
         <v>37438</v>
       </c>
       <c r="B28">
-        <v>104.2493379627183</v>
+        <v>271.47265178523509</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2192,7 +2192,7 @@
         <v>37530</v>
       </c>
       <c r="B29">
-        <v>101.67701579589966</v>
+        <v>346.76336461877412</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2200,7 +2200,7 @@
         <v>37622</v>
       </c>
       <c r="B30">
-        <v>97.825856096086696</v>
+        <v>332.92522008638144</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2208,7 +2208,7 @@
         <v>37712</v>
       </c>
       <c r="B31">
-        <v>98.314238000767858</v>
+        <v>271.1169144831598</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2216,7 +2216,7 @@
         <v>37803</v>
       </c>
       <c r="B32">
-        <v>95.788763512241459</v>
+        <v>263.00658557274818</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2224,7 +2224,7 @@
         <v>37895</v>
       </c>
       <c r="B33">
-        <v>107.22650310100215</v>
+        <v>307.15548368866047</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2232,7 +2232,7 @@
         <v>37987</v>
       </c>
       <c r="B34">
-        <v>101.67930083228798</v>
+        <v>347.69391476293589</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2240,7 +2240,7 @@
         <v>38078</v>
       </c>
       <c r="B35">
-        <v>99.253415968046284</v>
+        <v>316.2339719500356</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2248,7 +2248,7 @@
         <v>38169</v>
       </c>
       <c r="B36">
-        <v>97.548659458502726</v>
+        <v>263.5354723306304</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2256,7 +2256,7 @@
         <v>38261</v>
       </c>
       <c r="B37">
-        <v>98.261401570298545</v>
+        <v>317.89793408842741</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2264,7 +2264,7 @@
         <v>38353</v>
       </c>
       <c r="B38">
-        <v>95.681687195208511</v>
+        <v>298.99219535139093</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -2272,7 +2272,7 @@
         <v>38443</v>
       </c>
       <c r="B39">
-        <v>95.165746957869843</v>
+        <v>306.02974438707474</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2280,7 +2280,7 @@
         <v>38534</v>
       </c>
       <c r="B40">
-        <v>98.819853679257832</v>
+        <v>312.92586924750651</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2288,7 +2288,7 @@
         <v>38626</v>
       </c>
       <c r="B41">
-        <v>104.61479490729513</v>
+        <v>326.27806659619881</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2296,7 +2296,7 @@
         <v>38718</v>
       </c>
       <c r="B42">
-        <v>99.520220108478497</v>
+        <v>330.72268267756579</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2304,7 +2304,7 @@
         <v>38808</v>
       </c>
       <c r="B43">
-        <v>105.31882371913512</v>
+        <v>353.68110743836326</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2312,7 +2312,7 @@
         <v>38899</v>
       </c>
       <c r="B44">
-        <v>104.27372655674934</v>
+        <v>305.26108164879599</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2320,7 +2320,7 @@
         <v>38991</v>
       </c>
       <c r="B45">
-        <v>110.00490454402623</v>
+        <v>398.08088043391416</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2328,7 +2328,7 @@
         <v>39083</v>
       </c>
       <c r="B46">
-        <v>112.72614522310162</v>
+        <v>339.81706407960678</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2336,7 +2336,7 @@
         <v>39173</v>
       </c>
       <c r="B47">
-        <v>108.7480480385009</v>
+        <v>361.679699290158</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2344,7 +2344,7 @@
         <v>39264</v>
       </c>
       <c r="B48">
-        <v>106.16081546096096</v>
+        <v>342.89711818412604</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2352,7 +2352,7 @@
         <v>39356</v>
       </c>
       <c r="B49">
-        <v>119.34123508677727</v>
+        <v>489.99504196870458</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2360,7 +2360,7 @@
         <v>39448</v>
       </c>
       <c r="B50">
-        <v>120.24392566268186</v>
+        <v>372.1771526161254</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2368,7 +2368,7 @@
         <v>39539</v>
       </c>
       <c r="B51">
-        <v>124.56077256605113</v>
+        <v>422.06192658086854</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2376,7 +2376,7 @@
         <v>39630</v>
       </c>
       <c r="B52">
-        <v>130.93263807996968</v>
+        <v>377.8967799278318</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2384,7 +2384,7 @@
         <v>39722</v>
       </c>
       <c r="B53">
-        <v>138.34139509484086</v>
+        <v>459.77776039015544</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -2392,7 +2392,7 @@
         <v>39814</v>
       </c>
       <c r="B54">
-        <v>120.75194701463552</v>
+        <v>391.06267807680979</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2400,7 +2400,7 @@
         <v>39904</v>
       </c>
       <c r="B55">
-        <v>122.47173987594401</v>
+        <v>489.98572703593402</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2408,7 +2408,7 @@
         <v>39995</v>
       </c>
       <c r="B56">
-        <v>128.36922249203349</v>
+        <v>388.20451253232847</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2416,7 +2416,7 @@
         <v>40087</v>
       </c>
       <c r="B57">
-        <v>142.38697618990386</v>
+        <v>507.1766990358505</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2424,7 +2424,7 @@
         <v>40179</v>
       </c>
       <c r="B58">
-        <v>132.93951830170624</v>
+        <v>467.5499850413172</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2432,7 +2432,7 @@
         <v>40269</v>
       </c>
       <c r="B59">
-        <v>138.65758147701541</v>
+        <v>526.76306012261887</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2440,7 +2440,7 @@
         <v>40360</v>
       </c>
       <c r="B60">
-        <v>137.39687635305214</v>
+        <v>432.88169918273985</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2448,7 +2448,7 @@
         <v>40452</v>
       </c>
       <c r="B61">
-        <v>135.56264925367381</v>
+        <v>468.12690184229598</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2456,7 +2456,7 @@
         <v>40544</v>
       </c>
       <c r="B62">
-        <v>112.52639095921172</v>
+        <v>2.852781742627903</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2464,7 +2464,7 @@
         <v>40634</v>
       </c>
       <c r="B63">
-        <v>104.77728334956889</v>
+        <v>409.92066411204593</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2472,7 +2472,7 @@
         <v>40725</v>
       </c>
       <c r="B64">
-        <v>134.64675933439818</v>
+        <v>504.30393033864692</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2480,7 +2480,7 @@
         <v>40817</v>
       </c>
       <c r="B65">
-        <v>154.51450010458035</v>
+        <v>514.36723528285734</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2488,7 +2488,7 @@
         <v>40909</v>
       </c>
       <c r="B66">
-        <v>162.50819799876845</v>
+        <v>521.5125990724855</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2496,7 +2496,7 @@
         <v>41000</v>
       </c>
       <c r="B67">
-        <v>172.20904919287423</v>
+        <v>555.01791529404613</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -2504,7 +2504,7 @@
         <v>41091</v>
       </c>
       <c r="B68">
-        <v>168.16381968438665</v>
+        <v>573.04375342028482</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2512,7 +2512,7 @@
         <v>41183</v>
       </c>
       <c r="B69">
-        <v>180.1102970249527</v>
+        <v>534.92208937365001</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2520,7 +2520,7 @@
         <v>41275</v>
       </c>
       <c r="B70">
-        <v>181.08012734230567</v>
+        <v>527.3200713469148</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2528,7 +2528,7 @@
         <v>41365</v>
       </c>
       <c r="B71">
-        <v>189.82519905170818</v>
+        <v>607.44176390556834</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -2536,7 +2536,7 @@
         <v>41456</v>
       </c>
       <c r="B72">
-        <v>191.76100689195155</v>
+        <v>571.92872693838308</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -2544,7 +2544,7 @@
         <v>41548</v>
       </c>
       <c r="B73">
-        <v>209.27917161875851</v>
+        <v>642.33055617763614</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -2552,7 +2552,7 @@
         <v>41640</v>
       </c>
       <c r="B74">
-        <v>204.3333586717344</v>
+        <v>567.20429036640701</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -2560,7 +2560,7 @@
         <v>41730</v>
       </c>
       <c r="B75">
-        <v>218.73567656920747</v>
+        <v>693.81396795998944</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -2568,7 +2568,7 @@
         <v>41821</v>
       </c>
       <c r="B76">
-        <v>222.82016453809038</v>
+        <v>603.15222541343269</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2576,7 +2576,7 @@
         <v>41913</v>
       </c>
       <c r="B77">
-        <v>219.65215490212609</v>
+        <v>697.10662567405927</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -2584,7 +2584,7 @@
         <v>42005</v>
       </c>
       <c r="B78">
-        <v>216.06598817818102</v>
+        <v>667.982190431395</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -2592,7 +2592,7 @@
         <v>42095</v>
       </c>
       <c r="B79">
-        <v>232.38700023428802</v>
+        <v>781.1956097660468</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2600,7 +2600,7 @@
         <v>42186</v>
       </c>
       <c r="B80">
-        <v>231.27856009403462</v>
+        <v>692.96371495266874</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2608,7 +2608,7 @@
         <v>42278</v>
       </c>
       <c r="B81">
-        <v>236.01139676649876</v>
+        <v>776.52964767861329</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -2616,7 +2616,7 @@
         <v>42370</v>
       </c>
       <c r="B82">
-        <v>226.19306279401144</v>
+        <v>802.93847719182349</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2624,7 +2624,7 @@
         <v>42461</v>
       </c>
       <c r="B83">
-        <v>225.5231197097944</v>
+        <v>864.16930171551667</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -2632,7 +2632,7 @@
         <v>42552</v>
       </c>
       <c r="B84">
-        <v>221.97744221277432</v>
+        <v>737.81874296202341</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2640,7 +2640,7 @@
         <v>42644</v>
       </c>
       <c r="B85">
-        <v>231.53406874265573</v>
+        <v>768.92866218212748</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -2648,7 +2648,7 @@
         <v>42736</v>
       </c>
       <c r="B86">
-        <v>284.2916475625974</v>
+        <v>1063.1755557769693</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -2656,7 +2656,7 @@
         <v>42826</v>
       </c>
       <c r="B87">
-        <v>273.20660413206139</v>
+        <v>1069.3783541096388</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2664,7 +2664,7 @@
         <v>42917</v>
       </c>
       <c r="B88">
-        <v>273.02559828081331</v>
+        <v>995.63112308288385</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -2672,7 +2672,7 @@
         <v>43009</v>
       </c>
       <c r="B89">
-        <v>277.50920993249946</v>
+        <v>942.28779751983234</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -2680,7 +2680,7 @@
         <v>43101</v>
       </c>
       <c r="B90">
-        <v>284.33979607839058</v>
+        <v>847.95944819802912</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2688,7 +2688,7 @@
         <v>43191</v>
       </c>
       <c r="B91">
-        <v>253.66952260104742</v>
+        <v>1007.913630879233</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -2696,7 +2696,7 @@
         <v>43282</v>
       </c>
       <c r="B92">
-        <v>269.99171907527733</v>
+        <v>833.43186754203577</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2704,7 +2704,7 @@
         <v>43374</v>
       </c>
       <c r="B93">
-        <v>268.54264500705227</v>
+        <v>939.0345863190181</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2712,7 +2712,7 @@
         <v>43466</v>
       </c>
       <c r="B94">
-        <v>318.09095358390562</v>
+        <v>905.54363725913663</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -2720,7 +2720,7 @@
         <v>43556</v>
       </c>
       <c r="B95">
-        <v>266.83372862018734</v>
+        <v>1075.8630821461136</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -2728,7 +2728,7 @@
         <v>43647</v>
       </c>
       <c r="B96">
-        <v>298.30351576390376</v>
+        <v>950.41021809405993</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -2736,7 +2736,7 @@
         <v>43739</v>
       </c>
       <c r="B97">
-        <v>289.31211298597378</v>
+        <v>1008.2548201952303</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2744,7 +2744,7 @@
         <v>43831</v>
       </c>
       <c r="B98">
-        <v>350.09886977583034</v>
+        <v>984.2661460742205</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2752,7 +2752,7 @@
         <v>43922</v>
       </c>
       <c r="B99">
-        <v>277.36894830514603</v>
+        <v>877.71190050444682</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2760,7 +2760,7 @@
         <v>44013</v>
       </c>
       <c r="B100">
-        <v>324.15937671869085</v>
+        <v>1050.5122261470819</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2768,7 +2768,7 @@
         <v>44105</v>
       </c>
       <c r="B101">
-        <v>308.41919309371241</v>
+        <v>1139.0904303294642</v>
       </c>
     </row>
   </sheetData>
@@ -2777,14 +2777,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D5A897-07D6-4801-8CCD-33959F874B83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69347977-E2B5-434C-B8FB-BE6DC32535D0}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="B2">
         <f>pro!B2 -conso!B2</f>
-        <v>2923643.0022970745</v>
+        <v>1071981.5531803041</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="B3">
         <f>pro!B3 -conso!B3</f>
-        <v>2779926.8229126702</v>
+        <v>1086535.7039443441</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="B4">
         <f>pro!B4 -conso!B4</f>
-        <v>2905218.8065582039</v>
+        <v>1104983.0594843852</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="B5">
         <f>pro!B5 -conso!B5</f>
-        <v>3080473.620908082</v>
+        <v>963704.78306671581</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="B6">
         <f>pro!B6 -conso!B6</f>
-        <v>2818358.2290751208</v>
+        <v>945990.28082493623</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2848,7 +2848,7 @@
       </c>
       <c r="B7">
         <f>pro!B7 -conso!B7</f>
-        <v>2715368.6983037135</v>
+        <v>930722.71517897362</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="B8">
         <f>pro!B8 -conso!B8</f>
-        <v>2586653.5061203423</v>
+        <v>1057337.6441696975</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="B9">
         <f>pro!B9 -conso!B9</f>
-        <v>2256412.8702432956</v>
+        <v>1117902.7684626032</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="B10">
         <f>pro!B10 -conso!B10</f>
-        <v>2467733.7553332825</v>
+        <v>1256432.5639295208</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="B11">
         <f>pro!B11 -conso!B11</f>
-        <v>2516884.8238905002</v>
+        <v>1189856.4708432767</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="B12">
         <f>pro!B12 -conso!B12</f>
-        <v>2475909.3652296141</v>
+        <v>1236989.1662027198</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="B13">
         <f>pro!B13 -conso!B13</f>
-        <v>2355799.6917045368</v>
+        <v>1302568.2104731307</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2911,7 +2911,7 @@
       </c>
       <c r="B14">
         <f>pro!B14 -conso!B14</f>
-        <v>2359585.2712746193</v>
+        <v>1237643.039560745</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B15">
         <f>pro!B15 -conso!B15</f>
-        <v>2604231.516686731</v>
+        <v>1254727.2209089387</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2929,7 +2929,7 @@
       </c>
       <c r="B16">
         <f>pro!B16 -conso!B16</f>
-        <v>2760904.5103606037</v>
+        <v>1206495.8700359438</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="B17">
         <f>pro!B17 -conso!B17</f>
-        <v>2626296.0894885785</v>
+        <v>1112020.8544587812</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="B18">
         <f>pro!B18 -conso!B18</f>
-        <v>3118309.7316730549</v>
+        <v>1462620.5966589863</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="B19">
         <f>pro!B19 -conso!B19</f>
-        <v>3358018.3449649359</v>
+        <v>1486238.4543876173</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2965,7 +2965,7 @@
       </c>
       <c r="B20">
         <f>pro!B20 -conso!B20</f>
-        <v>3729930.7323515434</v>
+        <v>1605684.7941305023</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="B21">
         <f>pro!B21 -conso!B21</f>
-        <v>3797350</v>
+        <v>1999783</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="B22">
         <f>pro!B22 -conso!B22</f>
-        <v>4327182</v>
+        <v>2038236</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="B23">
         <f>pro!B23 -conso!B23</f>
-        <v>4864766.9958466217</v>
+        <v>2451701.3457828108</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="B24">
         <f>pro!B24 -conso!B24</f>
-        <v>5574304.3396454221</v>
+        <v>2600850.2537295958</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3010,7 +3010,7 @@
       </c>
       <c r="B25">
         <f>pro!B25 -conso!B25</f>
-        <v>5846158.2161954641</v>
+        <v>3002201.8139454219</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3019,7 +3019,7 @@
       </c>
       <c r="B26">
         <f>pro!B26 -conso!B26</f>
-        <v>5699489.0356132342</v>
+        <v>3415686.0456909742</v>
       </c>
     </row>
   </sheetData>
@@ -3028,14 +3028,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F56B073A-A5C9-4D03-9D74-5F03332C67A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9590C8C-5244-477B-92BC-FC35A260733B}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3053,7 +3053,7 @@
         <v>1996</v>
       </c>
       <c r="B2">
-        <v>2833561.4228866855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3061,7 +3061,7 @@
         <v>1997</v>
       </c>
       <c r="B3">
-        <v>2694268.7426276295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3069,7 +3069,7 @@
         <v>1998</v>
       </c>
       <c r="B4">
-        <v>2815706.2253714614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3077,7 +3077,7 @@
         <v>1999</v>
       </c>
       <c r="B5">
-        <v>2985557.8699308033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3085,7 +3085,7 @@
         <v>2000</v>
       </c>
       <c r="B6">
-        <v>2731517.8987471694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3093,7 +3093,7 @@
         <v>2001</v>
       </c>
       <c r="B7">
-        <v>2631707.4747483395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3101,7 +3101,7 @@
         <v>2002</v>
       </c>
       <c r="B8">
-        <v>2506952.215295386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3109,7 +3109,7 @@
         <v>2003</v>
       </c>
       <c r="B9">
-        <v>2186889.2965822346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3117,7 +3117,7 @@
         <v>2004</v>
       </c>
       <c r="B10">
-        <v>2391695.8620984363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3125,7 +3125,7 @@
         <v>2005</v>
       </c>
       <c r="B11">
-        <v>2439333.1828502887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3133,7 +3133,7 @@
         <v>2006</v>
       </c>
       <c r="B12">
-        <v>2399615.2856409606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3141,7 +3141,7 @@
         <v>2007</v>
       </c>
       <c r="B13">
-        <v>2283210.8388029905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3149,7 +3149,7 @@
         <v>2008</v>
       </c>
       <c r="B14">
-        <v>2286881.8910675156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3157,7 +3157,7 @@
         <v>2009</v>
       </c>
       <c r="B15">
-        <v>2523993.2251696037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3165,7 +3165,7 @@
         <v>2010</v>
       </c>
       <c r="B16">
-        <v>2675843.658777026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3173,7 +3173,7 @@
         <v>2011</v>
       </c>
       <c r="B17">
-        <v>2545384.9572372199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3181,7 +3181,7 @@
         <v>2012</v>
       </c>
       <c r="B18">
-        <v>3022240.0553612798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3189,7 +3189,7 @@
         <v>2013</v>
       </c>
       <c r="B19">
-        <v>3254562.7503222344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3197,7 +3197,7 @@
         <v>2014</v>
       </c>
       <c r="B20">
-        <v>3615019.748091368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3205,7 +3205,7 @@
         <v>2015</v>
       </c>
       <c r="B21">
-        <v>3680360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3213,7 +3213,7 @@
         <v>2016</v>
       </c>
       <c r="B22">
-        <v>3619168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3221,7 +3221,7 @@
         <v>2017</v>
       </c>
       <c r="B23">
-        <v>3833790.8603411024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3229,7 +3229,7 @@
         <v>2018</v>
       </c>
       <c r="B24">
-        <v>4293845.8948669126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3237,7 +3237,7 @@
         <v>2019</v>
       </c>
       <c r="B25">
-        <v>4503252.9492191356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3245,7 +3245,7 @@
         <v>2020</v>
       </c>
       <c r="B26">
-        <v>4390274.7512999186</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/VA_DTX.xlsx
+++ b/VA_DTX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{515516C4-1651-4E09-A275-B4393A99210E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54B23CD-C935-440B-9EFA-0DF5AA055926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{085FDA9C-94F9-42A8-9CA9-2137B3441D84}"/>
   </bookViews>
@@ -25,7 +25,6 @@
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
-    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="_______________________r" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
@@ -64,9 +63,9 @@
     <definedName name="__123Graph_CTOTX" hidden="1">[1]export!#REF!</definedName>
     <definedName name="__123Graph_CTOTXVOL" hidden="1">[1]export!#REF!</definedName>
     <definedName name="__123Graph_CXM" hidden="1">[1]export!#REF!</definedName>
-    <definedName name="__123Graph_D" hidden="1">[3]E!#REF!</definedName>
+    <definedName name="__123Graph_D" hidden="1">[2]E!#REF!</definedName>
     <definedName name="__123Graph_DCURRENT" hidden="1">#REF!</definedName>
-    <definedName name="__123Graph_E" hidden="1">[3]E!#REF!</definedName>
+    <definedName name="__123Graph_E" hidden="1">[2]E!#REF!</definedName>
     <definedName name="__123Graph_ECURRENT" hidden="1">#REF!</definedName>
     <definedName name="__123Graph_X" hidden="1">[1]export!#REF!</definedName>
     <definedName name="__123Graph_XCAFCAC" hidden="1">[1]export!#REF!</definedName>
@@ -74,38 +73,38 @@
     <definedName name="__123Graph_XTOTX" hidden="1">[1]export!#REF!</definedName>
     <definedName name="__123Graph_XTOTXVOL" hidden="1">[1]export!#REF!</definedName>
     <definedName name="__123Graph_XXM" hidden="1">[1]export!#REF!</definedName>
-    <definedName name="_123graph_b" hidden="1">[4]A!#REF!</definedName>
+    <definedName name="_123graph_b" hidden="1">[3]A!#REF!</definedName>
     <definedName name="_12no" hidden="1">#REF!</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
     <definedName name="_Fill1" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" hidden="1">[5]C!$P$428:$T$428</definedName>
+    <definedName name="_xlnm._FilterDatabase" hidden="1">[4]C!$P$428:$T$428</definedName>
     <definedName name="_Key1" hidden="1">#REF!</definedName>
     <definedName name="_new1" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="_Order1" hidden="1">255</definedName>
     <definedName name="_Parse_In" hidden="1">#REF!</definedName>
     <definedName name="_Parse_Out" hidden="1">#REF!</definedName>
     <definedName name="_Regression_Int" hidden="1">1</definedName>
-    <definedName name="_Regression_Out" hidden="1">[5]C!$AK$18:$AK$18</definedName>
-    <definedName name="_Regression_X" hidden="1">[5]C!$AK$11:$AU$11</definedName>
-    <definedName name="_Regression_Y" hidden="1">[5]C!$AK$10:$AU$10</definedName>
+    <definedName name="_Regression_Out" hidden="1">[4]C!$AK$18:$AK$18</definedName>
+    <definedName name="_Regression_X" hidden="1">[4]C!$AK$11:$AU$11</definedName>
+    <definedName name="_Regression_Y" hidden="1">[4]C!$AK$10:$AU$10</definedName>
     <definedName name="_Sort" hidden="1">#REF!</definedName>
-    <definedName name="ACwvu.Print." hidden="1">[6]Med!#REF!</definedName>
+    <definedName name="ACwvu.Print." hidden="1">[5]Med!#REF!</definedName>
     <definedName name="awea" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="cashplan" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="CRES" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
-    <definedName name="CRISa" hidden="1">[7]A!#REF!</definedName>
+    <definedName name="CRISa" hidden="1">[6]A!#REF!</definedName>
     <definedName name="e" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="ergferes1" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="ergferger" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="ergferger1" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="ergferges" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
-    <definedName name="graphe" hidden="1">[3]E!#REF!</definedName>
+    <definedName name="graphe" hidden="1">[2]E!#REF!</definedName>
     <definedName name="kol" hidden="1">#REF!</definedName>
     <definedName name="KONAN" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="kossi" hidden="1">#REF!</definedName>
     <definedName name="new" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="nnnnnnnnnnn" hidden="1">[1]export!#REF!</definedName>
-    <definedName name="pol" hidden="1">[4]A!#REF!</definedName>
+    <definedName name="pol" hidden="1">[3]A!#REF!</definedName>
     <definedName name="popl" hidden="1">#REF!</definedName>
     <definedName name="PROJA" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="q" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
@@ -113,7 +112,7 @@
     <definedName name="rtre" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="Rwvu.Print." hidden="1">#N/A</definedName>
     <definedName name="s" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
-    <definedName name="Swvu.Print." hidden="1">[6]Med!#REF!</definedName>
+    <definedName name="Swvu.Print." hidden="1">[5]Med!#REF!</definedName>
     <definedName name="tenou" hidden="1">#REF!</definedName>
     <definedName name="tyi" hidden="1">#REF!</definedName>
     <definedName name="wrn.Main._.Economic._.Indicators." hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
@@ -317,268 +316,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="pro"/>
-      <sheetName val="ind"/>
-      <sheetName val="VA"/>
-      <sheetName val="conso"/>
-      <sheetName val="Tables du Contenu"/>
-      <sheetName val="Indications"/>
-      <sheetName val="MAP"/>
-      <sheetName val="Data_Eviews"/>
-      <sheetName val="Ind_rel_Prod_CST (2)"/>
-      <sheetName val="Resultats _Reg_Coef"/>
-      <sheetName val="Resultats _Reg_Filted"/>
-      <sheetName val="Resultats _Reg_Resid"/>
-      <sheetName val="Resultats_Ind_Forecast"/>
-      <sheetName val="Data Indicateurs_Trim"/>
-      <sheetName val="AGV_CNA"/>
-      <sheetName val="Feuil1"/>
-      <sheetName val="Feuil2"/>
-      <sheetName val="AGV_IND"/>
-      <sheetName val="AGV_ETALONNAGE"/>
-      <sheetName val="AGV_RESIDUS"/>
-      <sheetName val="AGV_CALAGE"/>
-      <sheetName val="AVG_PREVISION"/>
-      <sheetName val="AEX_CNA"/>
-      <sheetName val="AEX_IND"/>
-      <sheetName val="AEX_ETALONNAGE"/>
-      <sheetName val="AEX_RESIDUS"/>
-      <sheetName val="AEX_CALAGE"/>
-      <sheetName val="AEX_PREVISION"/>
-      <sheetName val="ELE_CNA"/>
-      <sheetName val="ELE_CALAGE"/>
-      <sheetName val="ELE_PREVISION"/>
-      <sheetName val="SYL_CNA"/>
-      <sheetName val="SYL_CALAGE"/>
-      <sheetName val="SYL_PREVISION"/>
-      <sheetName val="EXT_CNA"/>
-      <sheetName val="EXT_IND"/>
-      <sheetName val="EXT_ETALONNAGE"/>
-      <sheetName val="EXT_RESIDUS"/>
-      <sheetName val="EXT_CALAGE"/>
-      <sheetName val="EXT_PREVISION"/>
-      <sheetName val="AUI_CNA"/>
-      <sheetName val="AUI_IND"/>
-      <sheetName val="AUI_ETALONNAGE"/>
-      <sheetName val="AUI_RESIDUS"/>
-      <sheetName val="AUI_CALAGE"/>
-      <sheetName val="AUI_PREVISION"/>
-      <sheetName val="RAF_CNA"/>
-      <sheetName val="RAF_IND"/>
-      <sheetName val="RAF_ETALONNAGE"/>
-      <sheetName val="RAF_RESIDUS"/>
-      <sheetName val="RAF_CALAGE"/>
-      <sheetName val="RAF_PREVISION"/>
-      <sheetName val="ENE_CNA"/>
-      <sheetName val="ENE_IND"/>
-      <sheetName val="ENE_ETALONNAGE"/>
-      <sheetName val="ENE_RESIDUS"/>
-      <sheetName val="ENE_CALAGE"/>
-      <sheetName val="ENE_PREVISION"/>
-      <sheetName val="IAA_CNA"/>
-      <sheetName val="IAA_IND"/>
-      <sheetName val="IAA_ETALONNAGE"/>
-      <sheetName val="IAA_RESIDUS"/>
-      <sheetName val="IAA_CALAGE"/>
-      <sheetName val="IAA_PREVISION"/>
-      <sheetName val="BFA_CNA"/>
-      <sheetName val="BFA_IND"/>
-      <sheetName val="BFA_ETALONNAGE"/>
-      <sheetName val="BFA_RESIDUS"/>
-      <sheetName val="BFA_CALAGE"/>
-      <sheetName val="BFA_PREVISION"/>
-      <sheetName val="BTP_CNA"/>
-      <sheetName val="BTP_IND"/>
-      <sheetName val="BTP_ETALONNAGE"/>
-      <sheetName val="BTP_RESIDUS"/>
-      <sheetName val="BTP_CALAGE"/>
-      <sheetName val="BTP_PREVISION"/>
-      <sheetName val="COM_CNA"/>
-      <sheetName val="COM_IND"/>
-      <sheetName val="COM_ETALONNAGE"/>
-      <sheetName val="COM_RESIDUS"/>
-      <sheetName val="COM_CALAGE"/>
-      <sheetName val="COM_PREVISION"/>
-      <sheetName val="HOT_CNA"/>
-      <sheetName val="HOT_IND"/>
-      <sheetName val="HOT_ETALONNAGE"/>
-      <sheetName val="HOT_RESIDUS"/>
-      <sheetName val="HOT_CALAGE"/>
-      <sheetName val="HOT_PREVISION"/>
-      <sheetName val="TEL_CNA"/>
-      <sheetName val="TEL_IND"/>
-      <sheetName val="TEL_ETALONNAGE"/>
-      <sheetName val="TEL_RESIDUS"/>
-      <sheetName val="TEL_CALAGE"/>
-      <sheetName val="TEL_PREVISION"/>
-      <sheetName val="TRA_CNA"/>
-      <sheetName val="TRA_IND"/>
-      <sheetName val="TRA_ETALONNAGE"/>
-      <sheetName val="TRA_RESIDUS"/>
-      <sheetName val="TRA_CALAGE"/>
-      <sheetName val="TRA_PREVISION"/>
-      <sheetName val="AUS_CNA"/>
-      <sheetName val="AUS_IND"/>
-      <sheetName val="AUS_ETALONNAGE"/>
-      <sheetName val="AUS_RESIDUS"/>
-      <sheetName val="AUS_CALAGE"/>
-      <sheetName val="AUS_PREVISION"/>
-      <sheetName val="APU_CNA"/>
-      <sheetName val="APU_IND"/>
-      <sheetName val="APU_ETALONNAGE"/>
-      <sheetName val="APU_RESIDUS"/>
-      <sheetName val="APU_CALAGE"/>
-      <sheetName val="APU_PREVISION"/>
-      <sheetName val="DTX_CNA"/>
-      <sheetName val="DTX_IND"/>
-      <sheetName val="DTX_ETALONNAGE"/>
-      <sheetName val="DTX_RESIDUS"/>
-      <sheetName val="DTX_CALAGE"/>
-      <sheetName val="DTX_PREVISION"/>
-      <sheetName val="FRANCS CST_2015_op1"/>
-      <sheetName val="FRANCS CST_2015_op2"/>
-      <sheetName val="Option"/>
-      <sheetName val="FRANCS CST_2015"/>
-      <sheetName val="FRANCS CST_2015_Croissance"/>
-      <sheetName val="FRANCS CST_2015_Contributions"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-      <sheetData sheetId="59"/>
-      <sheetData sheetId="60"/>
-      <sheetData sheetId="61"/>
-      <sheetData sheetId="62"/>
-      <sheetData sheetId="63"/>
-      <sheetData sheetId="64"/>
-      <sheetData sheetId="65"/>
-      <sheetData sheetId="66"/>
-      <sheetData sheetId="67"/>
-      <sheetData sheetId="68"/>
-      <sheetData sheetId="69"/>
-      <sheetData sheetId="70"/>
-      <sheetData sheetId="71"/>
-      <sheetData sheetId="72"/>
-      <sheetData sheetId="73"/>
-      <sheetData sheetId="74"/>
-      <sheetData sheetId="75"/>
-      <sheetData sheetId="76"/>
-      <sheetData sheetId="77"/>
-      <sheetData sheetId="78"/>
-      <sheetData sheetId="79"/>
-      <sheetData sheetId="80"/>
-      <sheetData sheetId="81"/>
-      <sheetData sheetId="82"/>
-      <sheetData sheetId="83"/>
-      <sheetData sheetId="84"/>
-      <sheetData sheetId="85"/>
-      <sheetData sheetId="86"/>
-      <sheetData sheetId="87"/>
-      <sheetData sheetId="88"/>
-      <sheetData sheetId="89"/>
-      <sheetData sheetId="90"/>
-      <sheetData sheetId="91"/>
-      <sheetData sheetId="92"/>
-      <sheetData sheetId="93"/>
-      <sheetData sheetId="94"/>
-      <sheetData sheetId="95"/>
-      <sheetData sheetId="96"/>
-      <sheetData sheetId="97"/>
-      <sheetData sheetId="98"/>
-      <sheetData sheetId="99"/>
-      <sheetData sheetId="100"/>
-      <sheetData sheetId="101"/>
-      <sheetData sheetId="102"/>
-      <sheetData sheetId="103"/>
-      <sheetData sheetId="104"/>
-      <sheetData sheetId="105"/>
-      <sheetData sheetId="106"/>
-      <sheetData sheetId="107"/>
-      <sheetData sheetId="108"/>
-      <sheetData sheetId="109"/>
-      <sheetData sheetId="110"/>
-      <sheetData sheetId="111"/>
-      <sheetData sheetId="112"/>
-      <sheetData sheetId="113"/>
-      <sheetData sheetId="114"/>
-      <sheetData sheetId="115"/>
-      <sheetData sheetId="116"/>
-      <sheetData sheetId="117"/>
-      <sheetData sheetId="118"/>
-      <sheetData sheetId="119"/>
-      <sheetData sheetId="120"/>
-      <sheetData sheetId="121"/>
-      <sheetData sheetId="122"/>
-      <sheetData sheetId="123"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -791,7 +528,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -912,7 +649,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1212,7 +949,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1275,7 +1012,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1729,7 +1466,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B2" sqref="B2:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1750,7 +1487,7 @@
         <v>1996</v>
       </c>
       <c r="B2" s="1">
-        <v>1071981.5531803041</v>
+        <v>689569</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1758,7 +1495,7 @@
         <v>1997</v>
       </c>
       <c r="B3" s="1">
-        <v>1086535.7039443441</v>
+        <v>686496</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1766,7 +1503,7 @@
         <v>1998</v>
       </c>
       <c r="B4" s="1">
-        <v>1104983.0594843852</v>
+        <v>726689</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1774,7 +1511,7 @@
         <v>1999</v>
       </c>
       <c r="B5" s="1">
-        <v>963704.78306671581</v>
+        <v>597520</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1782,7 +1519,7 @@
         <v>2000</v>
       </c>
       <c r="B6" s="1">
-        <v>945990.28082493623</v>
+        <v>622389</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1790,7 +1527,7 @@
         <v>2001</v>
       </c>
       <c r="B7" s="1">
-        <v>930722.71517897362</v>
+        <v>686246</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1798,7 +1535,7 @@
         <v>2002</v>
       </c>
       <c r="B8" s="1">
-        <v>1057337.6441696975</v>
+        <v>819599</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1806,7 +1543,7 @@
         <v>2003</v>
       </c>
       <c r="B9" s="1">
-        <v>1117902.7684626032</v>
+        <v>870647</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1814,7 +1551,7 @@
         <v>2004</v>
       </c>
       <c r="B10" s="1">
-        <v>1256432.5639295208</v>
+        <v>990331</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1822,7 +1559,7 @@
         <v>2005</v>
       </c>
       <c r="B11" s="1">
-        <v>1189856.4708432767</v>
+        <v>953418</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1830,7 +1567,7 @@
         <v>2006</v>
       </c>
       <c r="B12" s="1">
-        <v>1236989.1662027198</v>
+        <v>985082</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1838,7 +1575,7 @@
         <v>2007</v>
       </c>
       <c r="B13" s="1">
-        <v>1302568.2104731307</v>
+        <v>1083865</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1846,7 +1583,7 @@
         <v>2008</v>
       </c>
       <c r="B14" s="1">
-        <v>1237643.039560745</v>
+        <v>1118119</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1854,7 +1591,7 @@
         <v>2009</v>
       </c>
       <c r="B15" s="1">
-        <v>1254727.2209089387</v>
+        <v>1187401</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1862,7 +1599,7 @@
         <v>2010</v>
       </c>
       <c r="B16" s="1">
-        <v>1206495.8700359438</v>
+        <v>1155632</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1870,7 +1607,7 @@
         <v>2011</v>
       </c>
       <c r="B17" s="1">
-        <v>1112020.8544587812</v>
+        <v>929833</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1878,7 +1615,7 @@
         <v>2012</v>
       </c>
       <c r="B18" s="1">
-        <v>1462620.5966589863</v>
+        <v>1403276</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1886,7 +1623,7 @@
         <v>2013</v>
       </c>
       <c r="B19" s="1">
-        <v>1486238.4543876173</v>
+        <v>1590431</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1894,7 +1631,7 @@
         <v>2014</v>
       </c>
       <c r="B20" s="1">
-        <v>1605684.7941305023</v>
+        <v>1834812</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1902,7 +1639,7 @@
         <v>2015</v>
       </c>
       <c r="B21" s="1">
-        <v>1999783</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1910,7 +1647,7 @@
         <v>2016</v>
       </c>
       <c r="B22" s="1">
-        <v>2038236</v>
+        <v>2080000</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1918,7 +1655,7 @@
         <v>2017</v>
       </c>
       <c r="B23" s="1">
-        <v>2451701.3457828108</v>
+        <v>2287000</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1926,7 +1663,7 @@
         <v>2018</v>
       </c>
       <c r="B24" s="1">
-        <v>2600850.2537295958</v>
+        <v>2411000</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1934,7 +1671,7 @@
         <v>2019</v>
       </c>
       <c r="B25" s="1">
-        <v>3002201.8139454219</v>
+        <v>2714431</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1942,7 +1679,7 @@
         <v>2020</v>
       </c>
       <c r="B26" s="1">
-        <v>3415686.0456909742</v>
+        <v>2463842</v>
       </c>
     </row>
   </sheetData>
@@ -2784,7 +2521,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B2" sqref="B2:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2802,8 +2539,7 @@
         <v>1996</v>
       </c>
       <c r="B2">
-        <f>pro!B2 -conso!B2</f>
-        <v>1071981.5531803041</v>
+        <v>689569</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2811,8 +2547,7 @@
         <v>1997</v>
       </c>
       <c r="B3">
-        <f>pro!B3 -conso!B3</f>
-        <v>1086535.7039443441</v>
+        <v>686496</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2820,8 +2555,7 @@
         <v>1998</v>
       </c>
       <c r="B4">
-        <f>pro!B4 -conso!B4</f>
-        <v>1104983.0594843852</v>
+        <v>726689</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2829,8 +2563,7 @@
         <v>1999</v>
       </c>
       <c r="B5">
-        <f>pro!B5 -conso!B5</f>
-        <v>963704.78306671581</v>
+        <v>597520</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2838,8 +2571,7 @@
         <v>2000</v>
       </c>
       <c r="B6">
-        <f>pro!B6 -conso!B6</f>
-        <v>945990.28082493623</v>
+        <v>622389</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2847,8 +2579,7 @@
         <v>2001</v>
       </c>
       <c r="B7">
-        <f>pro!B7 -conso!B7</f>
-        <v>930722.71517897362</v>
+        <v>686246</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2856,8 +2587,7 @@
         <v>2002</v>
       </c>
       <c r="B8">
-        <f>pro!B8 -conso!B8</f>
-        <v>1057337.6441696975</v>
+        <v>819599</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2865,8 +2595,7 @@
         <v>2003</v>
       </c>
       <c r="B9">
-        <f>pro!B9 -conso!B9</f>
-        <v>1117902.7684626032</v>
+        <v>870647</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2874,8 +2603,7 @@
         <v>2004</v>
       </c>
       <c r="B10">
-        <f>pro!B10 -conso!B10</f>
-        <v>1256432.5639295208</v>
+        <v>990331</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2883,8 +2611,7 @@
         <v>2005</v>
       </c>
       <c r="B11">
-        <f>pro!B11 -conso!B11</f>
-        <v>1189856.4708432767</v>
+        <v>953418</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2892,8 +2619,7 @@
         <v>2006</v>
       </c>
       <c r="B12">
-        <f>pro!B12 -conso!B12</f>
-        <v>1236989.1662027198</v>
+        <v>985082</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2901,8 +2627,7 @@
         <v>2007</v>
       </c>
       <c r="B13">
-        <f>pro!B13 -conso!B13</f>
-        <v>1302568.2104731307</v>
+        <v>1083865</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2910,8 +2635,7 @@
         <v>2008</v>
       </c>
       <c r="B14">
-        <f>pro!B14 -conso!B14</f>
-        <v>1237643.039560745</v>
+        <v>1118119</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2919,8 +2643,7 @@
         <v>2009</v>
       </c>
       <c r="B15">
-        <f>pro!B15 -conso!B15</f>
-        <v>1254727.2209089387</v>
+        <v>1187401</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2928,8 +2651,7 @@
         <v>2010</v>
       </c>
       <c r="B16">
-        <f>pro!B16 -conso!B16</f>
-        <v>1206495.8700359438</v>
+        <v>1155632</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2937,8 +2659,7 @@
         <v>2011</v>
       </c>
       <c r="B17">
-        <f>pro!B17 -conso!B17</f>
-        <v>1112020.8544587812</v>
+        <v>929833</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2946,8 +2667,7 @@
         <v>2012</v>
       </c>
       <c r="B18">
-        <f>pro!B18 -conso!B18</f>
-        <v>1462620.5966589863</v>
+        <v>1403276</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2955,8 +2675,7 @@
         <v>2013</v>
       </c>
       <c r="B19">
-        <f>pro!B19 -conso!B19</f>
-        <v>1486238.4543876173</v>
+        <v>1590431</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2964,8 +2683,7 @@
         <v>2014</v>
       </c>
       <c r="B20">
-        <f>pro!B20 -conso!B20</f>
-        <v>1605684.7941305023</v>
+        <v>1834812</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2973,8 +2691,7 @@
         <v>2015</v>
       </c>
       <c r="B21">
-        <f>pro!B21 -conso!B21</f>
-        <v>1999783</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2982,8 +2699,7 @@
         <v>2016</v>
       </c>
       <c r="B22">
-        <f>pro!B22 -conso!B22</f>
-        <v>2038236</v>
+        <v>2080000</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2991,8 +2707,7 @@
         <v>2017</v>
       </c>
       <c r="B23">
-        <f>pro!B23 -conso!B23</f>
-        <v>2451701.3457828108</v>
+        <v>2287000</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3000,8 +2715,7 @@
         <v>2018</v>
       </c>
       <c r="B24">
-        <f>pro!B24 -conso!B24</f>
-        <v>2600850.2537295958</v>
+        <v>2411000</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3009,8 +2723,7 @@
         <v>2019</v>
       </c>
       <c r="B25">
-        <f>pro!B25 -conso!B25</f>
-        <v>3002201.8139454219</v>
+        <v>2714431</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3018,8 +2731,7 @@
         <v>2020</v>
       </c>
       <c r="B26">
-        <f>pro!B26 -conso!B26</f>
-        <v>3415686.0456909742</v>
+        <v>2463842</v>
       </c>
     </row>
   </sheetData>
